--- a/document/项目安排计划/测试进度计划-卢茜君.xlsx
+++ b/document/项目安排计划/测试进度计划-卢茜君.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724D46B0-8520-714A-95F5-938ECC42A188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="测试进度计划" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
+    <t>测试进度计划</t>
+  </si>
+  <si>
     <t>阶段</t>
   </si>
   <si>
@@ -36,22 +28,13 @@
     <t>日期</t>
   </si>
   <si>
+    <t>项目团队</t>
+  </si>
+  <si>
+    <t>项目团队处理事项</t>
+  </si>
+  <si>
     <t>项目策划</t>
-  </si>
-  <si>
-    <t>测试阶段</t>
-  </si>
-  <si>
-    <t>环境准备</t>
-  </si>
-  <si>
-    <t>测试进度计划</t>
-  </si>
-  <si>
-    <t>项目团队</t>
-  </si>
-  <si>
-    <t>项目团队处理事项</t>
   </si>
   <si>
     <t>测试进度安排</t>
@@ -137,6 +120,9 @@
     <t>阶段文档：测试计划、测试方案</t>
   </si>
   <si>
+    <t>测试阶段</t>
+  </si>
+  <si>
     <t>代码评审</t>
   </si>
   <si>
@@ -147,6 +133,9 @@
   </si>
   <si>
     <t>开发人员对团队代码进行检查</t>
+  </si>
+  <si>
+    <t>环境准备</t>
   </si>
   <si>
     <t>2019.09.02</t>
@@ -206,29 +195,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -236,36 +222,19 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -274,12 +243,162 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,20 +407,215 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -317,105 +631,376 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,7 +1049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -497,26 +1082,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -549,23 +1117,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,251 +1258,246 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A6A213-6046-FB40-BF68-BE1C2BBB9950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.8333333333333" customWidth="1"/>
     <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="24">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.2" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+    <row r="4" s="3" customFormat="1" ht="93.6" spans="1:5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
-      <c r="A3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="5" s="4" customFormat="1" ht="62.4" spans="1:5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="78" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+      <c r="E7" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="102">
-      <c r="A4" s="22"/>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
+    <row r="8" s="5" customFormat="1" ht="46.8" spans="1:5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="11" customFormat="1" ht="68">
-      <c r="A5" s="22"/>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
+    <row r="9" s="5" customFormat="1" spans="1:5">
+      <c r="A9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
-      <c r="A6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+    <row r="10" s="5" customFormat="1" spans="1:5">
+      <c r="A10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="80">
-      <c r="A7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>24</v>
+    <row r="11" s="5" customFormat="1" ht="31.2" spans="1:5">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51">
-      <c r="A8" s="16"/>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>28</v>
+    <row r="12" s="5" customFormat="1" ht="62.4" spans="1:5">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+    <row r="13" s="5" customFormat="1" ht="46.8" spans="1:5">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>33</v>
+    <row r="14" s="5" customFormat="1" ht="78" spans="1:5">
+      <c r="A14" s="16"/>
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="34">
-      <c r="A11" s="16"/>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="85">
-      <c r="A12" s="16"/>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="68">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="85">
-      <c r="A14" s="16"/>
-      <c r="B14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="17" t="s">
+    <row r="15" s="5" customFormat="1" spans="1:5">
+      <c r="A15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/document/项目安排计划/测试进度计划-卢茜君.xlsx
+++ b/document/项目安排计划/测试进度计划-卢茜君.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>测试进度计划</t>
   </si>
@@ -86,7 +86,7 @@
     <t>阶段文档：测试进度计划表、需求规格说明书、概要设计说明书</t>
   </si>
   <si>
-    <t>测试计划</t>
+    <t>测试设计</t>
   </si>
   <si>
     <t>编写测试计划</t>
@@ -120,19 +120,7 @@
     <t>阶段文档：测试计划、测试方案</t>
   </si>
   <si>
-    <t>测试阶段</t>
-  </si>
-  <si>
-    <t>代码评审</t>
-  </si>
-  <si>
-    <t>2019.08.30-2019.09.06</t>
-  </si>
-  <si>
-    <t>开发人员</t>
-  </si>
-  <si>
-    <t>开发人员对团队代码进行检查</t>
+    <t>测试执行</t>
   </si>
   <si>
     <t>环境准备</t>
@@ -151,7 +139,7 @@
     <t>单元测试</t>
   </si>
   <si>
-    <t>2019.09.03-2019.09.05</t>
+    <t>2019.08.30-2019.09.05</t>
   </si>
   <si>
     <t>测试负责人：卢茜君
@@ -164,6 +152,9 @@
   </si>
   <si>
     <t>集成测试</t>
+  </si>
+  <si>
+    <t>2019.09.03-2019.09.05</t>
   </si>
   <si>
     <t>1、组合已进行过单元测试的模块进行集成测试
@@ -187,6 +178,18 @@
     <t>1、在仿真环境下对系统及依赖环境进行测试
 2、记录测试结果及缺陷情况
 3、将缺陷反馈到负责人处并由负责人安排开发人员修复</t>
+  </si>
+  <si>
+    <t>测试总结</t>
+  </si>
+  <si>
+    <t>总结测试情况</t>
+  </si>
+  <si>
+    <t>2019.09.07</t>
+  </si>
+  <si>
+    <t>对被测软件进行评价和说明</t>
   </si>
   <si>
     <t>阶段文档：测试报告、缺陷报告</t>
@@ -197,12 +200,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,13 +229,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -247,87 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -337,15 +252,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,37 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -397,6 +288,111 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -419,25 +415,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,156 +596,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,8 +630,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,6 +647,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,58 +719,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,152 +729,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +893,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,40 +908,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1280,42 +1282,42 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.2" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1323,168 +1325,170 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="93.6" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="62.4" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="78" spans="1:5">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="46.8" spans="1:5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:5">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:5">
-      <c r="A10" s="16" t="s">
+    <row r="10" s="5" customFormat="1" ht="31.2" spans="1:5">
+      <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" ht="31.2" spans="1:5">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" s="5" customFormat="1" ht="62.4" spans="1:5">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="62.4" spans="1:5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
+    <row r="12" s="5" customFormat="1" ht="46.8" spans="1:5">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="19" t="s">
+    </row>
+    <row r="13" s="5" customFormat="1" ht="78" spans="1:5">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
+      <c r="C13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="46.8" spans="1:5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="78" spans="1:5">
-      <c r="A14" s="16"/>
-      <c r="B14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="16" t="s">
+    <row r="14" s="6" customFormat="1" ht="31.2" spans="1:5">
+      <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="6" t="s">
         <v>46</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:5">
-      <c r="A15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1494,7 +1498,7 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
